--- a/biology/Médecine/Halfdan_T._Mahler/Halfdan_T._Mahler.xlsx
+++ b/biology/Médecine/Halfdan_T._Mahler/Halfdan_T._Mahler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Halfdan Theodor Mahler, né le 21 avril 1923 à Vivild au Danemark et mort le 14 décembre 2016[1] à Genève en Suisse[2], est un médecin danois. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Halfdan Theodor Mahler, né le 21 avril 1923 à Vivild au Danemark et mort le 14 décembre 2016 à Genève en Suisse, est un médecin danois. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1951, Halfdan T. Mahler  rejoint l'Organisation mondiale de la santé (OMS). Il passe presque dix ans en Inde en tant qu'attaché au programme national de tuberculose. 
 De 1962 à 1969, il est le chef de l'unité de tuberculose au siège de l'OMS à Genève. 
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il reçoit la bourgeoisie d'honneur de la ville de Genève.
 </t>
